--- a/outputs-HGR-r202-archive/g__Ligilactobacillus_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Ligilactobacillus_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,23 +633,23 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_0.fasta</t>
+          <t>label_20298_2_1_7.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3459107142054813</v>
+        <v>0.2185136276449804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6508382546044048</v>
+        <v>0.7539602034171352</v>
       </c>
       <c r="D5" t="n">
-        <v>2.410007228963432e-13</v>
+        <v>5.803383180590176e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003251031189872945</v>
+        <v>0.02752616893782641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6508382546044048</v>
+        <v>0.7539602034171352</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -660,23 +660,23 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_12.fasta</t>
+          <t>label_20298_2_1_9.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.20713501963303</v>
+        <v>0.2193263879467293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7909573952597326</v>
+        <v>0.7532135656802097</v>
       </c>
       <c r="D6" t="n">
-        <v>6.204304860033432e-14</v>
+        <v>5.823668636888051e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001907585107175356</v>
+        <v>0.02746004637300281</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7909573952597326</v>
+        <v>0.7532135656802097</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -687,23 +687,23 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_15.fasta</t>
+          <t>label_20298_2_1_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007797891916037429</v>
+        <v>0.3091880609789154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.992160192168165</v>
+        <v>0.690811939018412</v>
       </c>
       <c r="D7" t="n">
-        <v>2.219734903398974e-14</v>
+        <v>1.336258712614084e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>4.191591577532482e-05</v>
+        <v>1.336258712614084e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.992160192168165</v>
+        <v>0.690811939018412</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -714,23 +714,23 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_7.fasta</t>
+          <t>label_20298_2_1_11.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2185136276449804</v>
+        <v>0.2477174713738992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7539602034171352</v>
+        <v>0.7522825286251593</v>
       </c>
       <c r="D8" t="n">
-        <v>5.803383180590176e-14</v>
+        <v>4.707826758488395e-13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02752616893782641</v>
+        <v>4.707826758488398e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7539602034171352</v>
+        <v>0.7522825286251593</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -741,23 +741,23 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_9.fasta</t>
+          <t>label_20298_2_1_13.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2193263879467293</v>
+        <v>0.165682529620086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7532135656802097</v>
+        <v>0.8343174703797932</v>
       </c>
       <c r="D9" t="n">
-        <v>5.823668636888051e-14</v>
+        <v>6.042066811492353e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02746004637300281</v>
+        <v>6.042066811492361e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7532135656802097</v>
+        <v>0.8343174703797932</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -768,23 +768,23 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_1.fasta</t>
+          <t>label_20298_2_1_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3091880609789154</v>
+        <v>0.2705796229276415</v>
       </c>
       <c r="C10" t="n">
-        <v>0.690811939018412</v>
+        <v>0.7294203770710276</v>
       </c>
       <c r="D10" t="n">
-        <v>1.336258712614084e-12</v>
+        <v>6.654678785003934e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>1.336258712614084e-12</v>
+        <v>6.654678785003933e-13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.690811939018412</v>
+        <v>0.7294203770710276</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -795,23 +795,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_11.fasta</t>
+          <t>label_20298_2_1_14.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2477174713738992</v>
+        <v>0.08753924708283045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7522825286251593</v>
+        <v>0.8823664343021346</v>
       </c>
       <c r="D11" t="n">
-        <v>4.707826758488395e-13</v>
+        <v>2.227557596318674e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>4.707826758488398e-13</v>
+        <v>0.03009431861501269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7522825286251593</v>
+        <v>0.8823664343021346</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_13.fasta</t>
+          <t>label_20298_2_1_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.165682529620086</v>
+        <v>0.2088685236709745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8343174703797932</v>
+        <v>0.6599922374555518</v>
       </c>
       <c r="D12" t="n">
-        <v>6.042066811492353e-14</v>
+        <v>6.93119293030318e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>6.042066811492361e-14</v>
+        <v>0.1311392388734044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8343174703797932</v>
+        <v>0.6599922374555518</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,23 +849,23 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_2.fasta</t>
+          <t>label_20298_2_1_5.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2705796229276415</v>
+        <v>0.2187261275472737</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7294203770710276</v>
+        <v>0.6388483985050308</v>
       </c>
       <c r="D13" t="n">
-        <v>6.654678785003934e-13</v>
+        <v>7.48033567501353e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>6.654678785003933e-13</v>
+        <v>0.1424254739476205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7294203770710276</v>
+        <v>0.6388483985050308</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -876,23 +876,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_14.fasta</t>
+          <t>label_20298_2_1_8.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08753924708283045</v>
+        <v>0.2188916329659454</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8823664343021346</v>
+        <v>0.6395080486153265</v>
       </c>
       <c r="D14" t="n">
-        <v>2.227557596318674e-14</v>
+        <v>7.503827569452641e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03009431861501269</v>
+        <v>0.1416003184186531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8823664343021346</v>
+        <v>0.6395080486153265</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -903,23 +903,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_4.fasta</t>
+          <t>label_20298_2_1_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2088685236709745</v>
+        <v>0.1816501269046764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6599922374555518</v>
+        <v>0.7653999119650167</v>
       </c>
       <c r="D15" t="n">
-        <v>6.93119293030318e-14</v>
+        <v>4.67647503900361e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1311392388734044</v>
+        <v>0.05294996113026005</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6599922374555518</v>
+        <v>0.7653999119650167</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -930,23 +930,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_5.fasta</t>
+          <t>label_20298_2_1_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2187261275472737</v>
+        <v>0.1841182054705546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6388483985050308</v>
+        <v>0.7625087202876688</v>
       </c>
       <c r="D16" t="n">
-        <v>7.48033567501353e-14</v>
+        <v>5.078865444135299e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1424254739476205</v>
+        <v>0.05337307424172587</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6388483985050308</v>
+        <v>0.7625087202876688</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -957,106 +957,25 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_1_8.fasta</t>
+          <t>label_20298_2_1_6.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2188916329659454</v>
+        <v>0.1827825046712481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6395080486153265</v>
+        <v>0.7675007364851122</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503827569452641e-14</v>
+        <v>4.55551583687349e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1416003184186531</v>
+        <v>0.04971675884359411</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6395080486153265</v>
+        <v>0.7675007364851122</v>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_1_10.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1816501269046764</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7653999119650167</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.67647503900361e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.05294996113026005</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7653999119650167</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1841182054705546</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7625087202876688</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.078865444135299e-14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.05337307424172587</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7625087202876688</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_1_6.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1827825046712481</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7675007364851122</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.55551583687349e-14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.04971675884359411</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7675007364851122</v>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus murinus</t>
         </is>
@@ -1073,7 +992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,23 +1445,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_1.fasta</t>
+          <t>label_12718_7_17_19.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1743007391135364</v>
+        <v>0.2192334770896874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8238829270614061</v>
+        <v>0.7538858185610048</v>
       </c>
       <c r="D17" t="n">
-        <v>4.650839010840561e-14</v>
+        <v>5.498988340240481e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00181633382501109</v>
+        <v>0.02688070434925291</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8238829270614061</v>
+        <v>0.7538858185610048</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1553,23 +1472,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_13.fasta</t>
+          <t>label_12718_7_17_20.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1763101209786168</v>
+        <v>0.2186844769612824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8220729490621934</v>
+        <v>0.7565698909485341</v>
       </c>
       <c r="D18" t="n">
-        <v>4.564870783611765e-14</v>
+        <v>5.684840019582274e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001616929959144165</v>
+        <v>0.02474563209012655</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8220729490621934</v>
+        <v>0.7565698909485341</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1580,23 +1499,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_2.fasta</t>
+          <t>label_12718_7_17_26.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3300150358021036</v>
+        <v>0.2189388889786974</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6664762076306381</v>
+        <v>0.7568582787469054</v>
       </c>
       <c r="D19" t="n">
-        <v>1.636043789340978e-13</v>
+        <v>5.474763017781623e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003508756567094651</v>
+        <v>0.02420283227434257</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6664762076306381</v>
+        <v>0.7568582787469054</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1607,23 +1526,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_34.fasta</t>
+          <t>label_12718_7_17_29.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1610571043291071</v>
+        <v>0.2198494372072055</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8377509109768199</v>
+        <v>0.7573565398999346</v>
       </c>
       <c r="D20" t="n">
-        <v>3.866423611910146e-14</v>
+        <v>5.658222947672488e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001191984694034356</v>
+        <v>0.02279402289280337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8377509109768199</v>
+        <v>0.7573565398999346</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1634,23 +1553,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_43.fasta</t>
+          <t>label_12718_7_17_3.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1250276246289664</v>
+        <v>0.2186696103640612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6316016365513544</v>
+        <v>0.7527745734834497</v>
       </c>
       <c r="D21" t="n">
-        <v>2.221851162758816e-14</v>
+        <v>5.815963717993301e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.243370738819657</v>
+        <v>0.02855581615243104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6316016365513544</v>
+        <v>0.7527745734834497</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1661,23 +1580,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_47.fasta</t>
+          <t>label_12718_7_17_31.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1065256347070493</v>
+        <v>0.2169679185331353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8928486687833281</v>
+        <v>0.7576232735759564</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219842590679324e-14</v>
+        <v>5.367690121133666e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0006256965096002931</v>
+        <v>0.02540880789085469</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8928486687833281</v>
+        <v>0.7576232735759564</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1688,23 +1607,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_51.fasta</t>
+          <t>label_12718_7_17_36.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09146004394468554</v>
+        <v>0.2193146828461149</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9080780302612272</v>
+        <v>0.7537846868653184</v>
       </c>
       <c r="D23" t="n">
-        <v>2.21952219912814e-14</v>
+        <v>5.35938151212349e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0004619257940649801</v>
+        <v>0.02690063028851296</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9080780302612272</v>
+        <v>0.7537846868653184</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1715,23 +1634,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_55.fasta</t>
+          <t>label_12718_7_17_41.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1009393756842546</v>
+        <v>0.2151720112189995</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8983618956507068</v>
+        <v>0.7510120090808705</v>
       </c>
       <c r="D24" t="n">
-        <v>2.219751957273453e-14</v>
+        <v>5.185949220863012e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006987286650163299</v>
+        <v>0.03381597970007828</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8983618956507068</v>
+        <v>0.7510120090808705</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1742,23 +1661,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_57.fasta</t>
+          <t>label_12718_7_17_46.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09839579628941436</v>
+        <v>0.2188063986517703</v>
       </c>
       <c r="C25" t="n">
-        <v>0.900512182951349</v>
+        <v>0.7610005817345382</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219649637940894e-14</v>
+        <v>5.420743093093598e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001092020759214365</v>
+        <v>0.0201930196136373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.900512182951349</v>
+        <v>0.7610005817345382</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1769,23 +1688,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_61.fasta</t>
+          <t>label_12718_7_17_48.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06528047135997184</v>
+        <v>0.2200075016894089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9338528272024837</v>
+        <v>0.7587099100579996</v>
       </c>
       <c r="D26" t="n">
-        <v>2.218612464900983e-14</v>
+        <v>5.429763397653256e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0008667014375221957</v>
+        <v>0.02128258825253733</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9338528272024837</v>
+        <v>0.7587099100579996</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1796,23 +1715,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_65.fasta</t>
+          <t>label_12718_7_17_5.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06968119977620334</v>
+        <v>0.2183237782508592</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9290494282517867</v>
+        <v>0.7540093684510811</v>
       </c>
       <c r="D27" t="n">
-        <v>2.218127953721022e-14</v>
+        <v>5.782247173629757e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001269371971987805</v>
+        <v>0.02766685329800193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9290494282517867</v>
+        <v>0.7540093684510811</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1823,23 +1742,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_67.fasta</t>
+          <t>label_12718_7_17_54.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0443054388056216</v>
+        <v>0.219370240848942</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9554319775880842</v>
+        <v>0.7598905542925157</v>
       </c>
       <c r="D28" t="n">
-        <v>2.218415993200845e-14</v>
+        <v>5.337339985242767e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002625836062720067</v>
+        <v>0.02073920485848888</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9554319775880842</v>
+        <v>0.7598905542925157</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1850,23 +1769,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_69.fasta</t>
+          <t>label_12718_7_17_59.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.181097078593305</v>
+        <v>0.2188388535504516</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7702350425066613</v>
+        <v>0.7599080676327129</v>
       </c>
       <c r="D29" t="n">
-        <v>3.657931325891888e-14</v>
+        <v>5.371433542044693e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04866787889999716</v>
+        <v>0.02125307881678182</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7702350425066613</v>
+        <v>0.7599080676327129</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1877,23 +1796,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_77.fasta</t>
+          <t>label_12718_7_17_6.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04425618753238828</v>
+        <v>0.2184479302980747</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9556605727308208</v>
+        <v>0.7542186512955569</v>
       </c>
       <c r="D30" t="n">
-        <v>2.218981528730894e-14</v>
+        <v>5.731924565272323e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>8.323973676869142e-05</v>
+        <v>0.02733341840631112</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9556605727308208</v>
+        <v>0.7542186512955569</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1904,23 +1823,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_78.fasta</t>
+          <t>label_12718_7_17_60.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04645115214237898</v>
+        <v>0.2171693077882036</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9534267594127598</v>
+        <v>0.7581794654996928</v>
       </c>
       <c r="D31" t="n">
-        <v>2.218649977625277e-14</v>
+        <v>5.368050651472806e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001220884448389308</v>
+        <v>0.02465122671204991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9534267594127598</v>
+        <v>0.7581794654996928</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1931,23 +1850,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_8.fasta</t>
+          <t>label_12718_7_17_72.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2723159229573643</v>
+        <v>0.220939909154853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7249503819605956</v>
+        <v>0.7611643947695362</v>
       </c>
       <c r="D32" t="n">
-        <v>1.073533319844173e-13</v>
+        <v>6.039020261307039e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002733695081932891</v>
+        <v>0.01789569607555054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7249503819605956</v>
+        <v>0.7611643947695362</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1958,23 +1877,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_19.fasta</t>
+          <t>label_12718_7_17_76.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2192334770896874</v>
+        <v>0.2212318463769788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7538858185610048</v>
+        <v>0.760157806190714</v>
       </c>
       <c r="D33" t="n">
-        <v>5.498988340240481e-14</v>
+        <v>5.820552538778157e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02688070434925291</v>
+        <v>0.01861034743224899</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7538858185610048</v>
+        <v>0.760157806190714</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1985,23 +1904,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_20.fasta</t>
+          <t>label_12718_7_17_81.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2186844769612824</v>
+        <v>0.2225909026440265</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7565698909485341</v>
+        <v>0.7601690779109946</v>
       </c>
       <c r="D34" t="n">
-        <v>5.684840019582274e-14</v>
+        <v>8.566592489700936e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02474563209012655</v>
+        <v>0.01724001944489316</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7565698909485341</v>
+        <v>0.7601690779109946</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2012,23 +1931,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_26.fasta</t>
+          <t>label_12718_7_17_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2189388889786974</v>
+        <v>0.1863231654747473</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7568582787469054</v>
+        <v>0.8136768345250388</v>
       </c>
       <c r="D35" t="n">
-        <v>5.474763017781623e-14</v>
+        <v>1.069781279177909e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02420283227434257</v>
+        <v>1.069781279177909e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7568582787469054</v>
+        <v>0.8136768345250388</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2039,23 +1958,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_29.fasta</t>
+          <t>label_12718_7_17_21.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2198494372072055</v>
+        <v>0.1716396883083822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7573565398999346</v>
+        <v>0.8283603116914598</v>
       </c>
       <c r="D36" t="n">
-        <v>5.658222947672488e-14</v>
+        <v>7.89229322367891e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02279402289280337</v>
+        <v>7.892293223678899e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7573565398999346</v>
+        <v>0.8283603116914598</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2066,23 +1985,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_3.fasta</t>
+          <t>label_12718_7_17_22.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2186696103640612</v>
+        <v>0.1975883339646586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7527745734834497</v>
+        <v>0.8024116660350481</v>
       </c>
       <c r="D37" t="n">
-        <v>5.815963717993301e-14</v>
+        <v>1.466908620071098e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02855581615243104</v>
+        <v>1.466908620071096e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7527745734834497</v>
+        <v>0.8024116660350481</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2093,50 +2012,50 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_31.fasta</t>
+          <t>label_12718_7_17_24.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2169679185331353</v>
+        <v>0.002379169426976272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7576232735759564</v>
+        <v>6.113701283411726e-10</v>
       </c>
       <c r="D38" t="n">
-        <v>5.367690121133666e-14</v>
+        <v>2.219809832302016e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02540880789085469</v>
+        <v>0.9976208299616314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7576232735759564</v>
+        <v>0.9976208299616314</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_36.fasta</t>
+          <t>label_12718_7_17_27.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2193146828461149</v>
+        <v>0.150953286512987</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7537846868653184</v>
+        <v>0.8490467134869323</v>
       </c>
       <c r="D39" t="n">
-        <v>5.35938151212349e-14</v>
+        <v>4.041564596990671e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02690063028851296</v>
+        <v>4.041564596990671e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7537846868653184</v>
+        <v>0.8490467134869323</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2147,23 +2066,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_41.fasta</t>
+          <t>label_12718_7_17_35.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2151720112189995</v>
+        <v>0.1683108339226867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7510120090808705</v>
+        <v>0.8316891660771726</v>
       </c>
       <c r="D40" t="n">
-        <v>5.185949220863012e-14</v>
+        <v>7.035387849995564e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03381597970007828</v>
+        <v>7.035387849995569e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7510120090808705</v>
+        <v>0.8316891660771726</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2174,23 +2093,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_46.fasta</t>
+          <t>label_12718_7_17_37.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2188063986517703</v>
+        <v>0.1777364894831823</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7610005817345382</v>
+        <v>0.8222635105166528</v>
       </c>
       <c r="D41" t="n">
-        <v>5.420743093093598e-14</v>
+        <v>8.246739100710757e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0201930196136373</v>
+        <v>8.246739100710753e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7610005817345382</v>
+        <v>0.8222635105166528</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2201,23 +2120,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_48.fasta</t>
+          <t>label_12718_7_17_4.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2200075016894089</v>
+        <v>0.2147017587148294</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7587099100579996</v>
+        <v>0.7852982412846534</v>
       </c>
       <c r="D42" t="n">
-        <v>5.429763397653256e-14</v>
+        <v>2.586092365520516e-13</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02128258825253733</v>
+        <v>2.586092365520517e-13</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7587099100579996</v>
+        <v>0.7852982412846534</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2228,23 +2147,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_5.fasta</t>
+          <t>label_12718_7_17_49.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2183237782508592</v>
+        <v>0.1440633999912693</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7540093684510811</v>
+        <v>0.8559366000086687</v>
       </c>
       <c r="D43" t="n">
-        <v>5.782247173629757e-14</v>
+        <v>3.099582047253353e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02766685329800193</v>
+        <v>3.099582047253354e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7540093684510811</v>
+        <v>0.8559366000086687</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2255,23 +2174,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_54.fasta</t>
+          <t>label_12718_7_17_50.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.219370240848942</v>
+        <v>0.1493842782052295</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7598905542925157</v>
+        <v>0.8506157217946914</v>
       </c>
       <c r="D44" t="n">
-        <v>5.337339985242767e-14</v>
+        <v>3.952631135890437e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02073920485848888</v>
+        <v>3.952631135890435e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7598905542925157</v>
+        <v>0.8506157217946914</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2282,23 +2201,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_59.fasta</t>
+          <t>label_12718_7_17_53.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2188388535504516</v>
+        <v>0.1489809383325383</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7599080676327129</v>
+        <v>0.8510190616673851</v>
       </c>
       <c r="D45" t="n">
-        <v>5.371433542044693e-14</v>
+        <v>3.830512474865601e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02125307881678182</v>
+        <v>3.830512474865599e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7599080676327129</v>
+        <v>0.8510190616673851</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2309,23 +2228,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_6.fasta</t>
+          <t>label_12718_7_17_64.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2184479302980747</v>
+        <v>0.1523500147994666</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7542186512955569</v>
+        <v>0.8476499852004419</v>
       </c>
       <c r="D46" t="n">
-        <v>5.731924565272323e-14</v>
+        <v>4.570784507938755e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02733341840631112</v>
+        <v>4.570784507938753e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7542186512955569</v>
+        <v>0.8476499852004419</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2336,23 +2255,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_60.fasta</t>
+          <t>label_12718_7_17_66.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2171693077882036</v>
+        <v>0.1424908751333986</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7581794654996928</v>
+        <v>0.8575091248665327</v>
       </c>
       <c r="D47" t="n">
-        <v>5.368050651472806e-14</v>
+        <v>3.435109266139998e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02465122671204991</v>
+        <v>3.435109266139999e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7581794654996928</v>
+        <v>0.8575091248665327</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2363,23 +2282,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_72.fasta</t>
+          <t>label_12718_7_17_7.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.220939909154853</v>
+        <v>0.2199301381795601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7611643947695362</v>
+        <v>0.7800698618199645</v>
       </c>
       <c r="D48" t="n">
-        <v>6.039020261307039e-14</v>
+        <v>2.376857948360001e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01789569607555054</v>
+        <v>2.37685794836e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7611643947695362</v>
+        <v>0.7800698618199645</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2390,23 +2309,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_76.fasta</t>
+          <t>label_12718_7_17_74.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2212318463769788</v>
+        <v>0.2594236288061786</v>
       </c>
       <c r="C49" t="n">
-        <v>0.760157806190714</v>
+        <v>0.7405763711928786</v>
       </c>
       <c r="D49" t="n">
-        <v>5.820552538778157e-14</v>
+        <v>4.714266275267995e-13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01861034743224899</v>
+        <v>4.714266275267992e-13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.760157806190714</v>
+        <v>0.7405763711928786</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2417,23 +2336,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_81.fasta</t>
+          <t>label_12718_7_17_79.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2225909026440265</v>
+        <v>0.1580580168707485</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7601690779109946</v>
+        <v>0.8419419831291023</v>
       </c>
       <c r="D50" t="n">
-        <v>8.566592489700936e-14</v>
+        <v>7.457683494549517e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01724001944489316</v>
+        <v>7.457683494549517e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7601690779109946</v>
+        <v>0.8419419831291023</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2444,23 +2363,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_17.fasta</t>
+          <t>label_12718_7_17_0.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1863231654747473</v>
+        <v>0.1882203333970247</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8136768345250388</v>
+        <v>0.698924510875449</v>
       </c>
       <c r="D51" t="n">
-        <v>1.069781279177909e-13</v>
+        <v>5.228433861943746e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>1.069781279177909e-13</v>
+        <v>0.112855155727474</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8136768345250388</v>
+        <v>0.698924510875449</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2471,23 +2390,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_21.fasta</t>
+          <t>label_12718_7_17_11.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1716396883083822</v>
+        <v>0.1692746763979228</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8283603116914598</v>
+        <v>0.7143768997280727</v>
       </c>
       <c r="D52" t="n">
-        <v>7.89229322367891e-14</v>
+        <v>3.99503246158908e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>7.892293223678899e-14</v>
+        <v>0.1163484238739645</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8283603116914598</v>
+        <v>0.7143768997280727</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2498,23 +2417,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_22.fasta</t>
+          <t>label_12718_7_17_12.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1975883339646586</v>
+        <v>0.1435686153885693</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8024116660350481</v>
+        <v>0.7817495126288633</v>
       </c>
       <c r="D53" t="n">
-        <v>1.466908620071098e-13</v>
+        <v>3.055622779719211e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>1.466908620071096e-13</v>
+        <v>0.07468187198253684</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8024116660350481</v>
+        <v>0.7817495126288633</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2525,50 +2444,50 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_24.fasta</t>
+          <t>label_12718_7_17_25.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002379169426976272</v>
+        <v>0.1289827842352727</v>
       </c>
       <c r="C54" t="n">
-        <v>6.113701283411726e-10</v>
+        <v>0.8036833687680641</v>
       </c>
       <c r="D54" t="n">
-        <v>2.219809832302016e-14</v>
+        <v>2.499735579946192e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9976208299616314</v>
+        <v>0.06733384699663843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9976208299616314</v>
+        <v>0.8036833687680641</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_27.fasta</t>
+          <t>label_12718_7_17_28.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.150953286512987</v>
+        <v>0.09052170649823543</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8490467134869323</v>
+        <v>0.8726926168111739</v>
       </c>
       <c r="D55" t="n">
-        <v>4.041564596990671e-14</v>
+        <v>2.227253349790476e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>4.041564596990671e-14</v>
+        <v>0.03678567669056833</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8490467134869323</v>
+        <v>0.8726926168111739</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2579,23 +2498,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_35.fasta</t>
+          <t>label_12718_7_17_32.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1683108339226867</v>
+        <v>0.1060554201536553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8316891660771726</v>
+        <v>0.8480791770388364</v>
       </c>
       <c r="D56" t="n">
-        <v>7.035387849995564e-14</v>
+        <v>2.223713258849105e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>7.035387849995569e-14</v>
+        <v>0.04586540280748599</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8316891660771726</v>
+        <v>0.8480791770388364</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2606,23 +2525,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_37.fasta</t>
+          <t>label_12718_7_17_33.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1777364894831823</v>
+        <v>0.1384468520235079</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8222635105166528</v>
+        <v>0.794210012157065</v>
       </c>
       <c r="D57" t="n">
-        <v>8.246739100710757e-14</v>
+        <v>2.857427526109018e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>8.246739100710753e-14</v>
+        <v>0.06734313581939842</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8222635105166528</v>
+        <v>0.794210012157065</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2633,23 +2552,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_4.fasta</t>
+          <t>label_12718_7_17_38.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2147017587148294</v>
+        <v>0.1150890865981479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7852982412846534</v>
+        <v>0.834096452749241</v>
       </c>
       <c r="D58" t="n">
-        <v>2.586092365520516e-13</v>
+        <v>2.221829456634772e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>2.586092365520517e-13</v>
+        <v>0.05081446065258879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7852982412846534</v>
+        <v>0.834096452749241</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2660,23 +2579,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_49.fasta</t>
+          <t>label_12718_7_17_40.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1440633999912693</v>
+        <v>0.1184298024778625</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8559366000086687</v>
+        <v>0.8287582965184349</v>
       </c>
       <c r="D59" t="n">
-        <v>3.099582047253353e-14</v>
+        <v>2.22151081365017e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>3.099582047253354e-14</v>
+        <v>0.05281190100368026</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8559366000086687</v>
+        <v>0.8287582965184349</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2687,23 +2606,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_50.fasta</t>
+          <t>label_12718_7_17_44.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1493842782052295</v>
+        <v>0.1137658521547569</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8506157217946914</v>
+        <v>0.8329294283559758</v>
       </c>
       <c r="D60" t="n">
-        <v>3.952631135890437e-14</v>
+        <v>2.222951883784403e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>3.952631135890435e-14</v>
+        <v>0.05330471948924509</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8506157217946914</v>
+        <v>0.8329294283559758</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2714,23 +2633,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_53.fasta</t>
+          <t>label_12718_7_17_45.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1489809383325383</v>
+        <v>0.08936583348944808</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8510190616673851</v>
+        <v>0.8800249297933317</v>
       </c>
       <c r="D61" t="n">
-        <v>3.830512474865601e-14</v>
+        <v>2.22745936412517e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>3.830512474865599e-14</v>
+        <v>0.03060923671719792</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8510190616673851</v>
+        <v>0.8800249297933317</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2741,23 +2660,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_64.fasta</t>
+          <t>label_12718_7_17_56.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1523500147994666</v>
+        <v>0.09689059725258807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8476499852004419</v>
+        <v>0.8618469326077313</v>
       </c>
       <c r="D62" t="n">
-        <v>4.570784507938755e-14</v>
+        <v>2.228330234489286e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>4.570784507938753e-14</v>
+        <v>0.04126247013965852</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8476499852004419</v>
+        <v>0.8618469326077313</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2768,23 +2687,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_66.fasta</t>
+          <t>label_12718_7_17_62.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1424908751333986</v>
+        <v>0.08682564107097958</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8575091248665327</v>
+        <v>0.8842904231256986</v>
       </c>
       <c r="D63" t="n">
-        <v>3.435109266139998e-14</v>
+        <v>2.228054551750395e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>3.435109266139999e-14</v>
+        <v>0.02888393580329949</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8575091248665327</v>
+        <v>0.8842904231256986</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2795,23 +2714,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_7.fasta</t>
+          <t>label_12718_7_17_68.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2199301381795601</v>
+        <v>0.0916789767537218</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7800698618199645</v>
+        <v>0.8755858781834455</v>
       </c>
       <c r="D64" t="n">
-        <v>2.376857948360001e-13</v>
+        <v>2.226387625280766e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>2.37685794836e-13</v>
+        <v>0.03273514506281043</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7800698618199645</v>
+        <v>0.8755858781834455</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2822,23 +2741,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_74.fasta</t>
+          <t>label_12718_7_17_71.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2594236288061786</v>
+        <v>0.09609383153730093</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7405763711928786</v>
+        <v>0.8736535064683829</v>
       </c>
       <c r="D65" t="n">
-        <v>4.714266275267995e-13</v>
+        <v>2.222730352863191e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>4.714266275267992e-13</v>
+        <v>0.03025266199429383</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7405763711928786</v>
+        <v>0.8736535064683829</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2849,23 +2768,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_79.fasta</t>
+          <t>label_12718_7_17_75.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1580580168707485</v>
+        <v>0.1068956637902466</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8419419831291023</v>
+        <v>0.8521884528059613</v>
       </c>
       <c r="D66" t="n">
-        <v>7.457683494549517e-14</v>
+        <v>2.222229321668061e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>7.457683494549517e-14</v>
+        <v>0.04091588340376978</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8419419831291023</v>
+        <v>0.8521884528059613</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2876,50 +2795,50 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_0.fasta</t>
+          <t>label_12718_7_17_82.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1882203333970247</v>
+        <v>0.2687763872950891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.698924510875449</v>
+        <v>0.2615542007825467</v>
       </c>
       <c r="D67" t="n">
-        <v>5.228433861943746e-14</v>
+        <v>0.2128820962090509</v>
       </c>
       <c r="E67" t="n">
-        <v>0.112855155727474</v>
+        <v>0.2567873157133134</v>
       </c>
       <c r="F67" t="n">
-        <v>0.698924510875449</v>
+        <v>0.2687763872950891</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus animalis</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_11.fasta</t>
+          <t>label_12718_7_17_9.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1692746763979228</v>
+        <v>0.1633443904653393</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7143768997280727</v>
+        <v>0.744599511976459</v>
       </c>
       <c r="D68" t="n">
-        <v>3.99503246158908e-14</v>
+        <v>3.930883842962967e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1163484238739645</v>
+        <v>0.09205609755816239</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7143768997280727</v>
+        <v>0.744599511976459</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2930,23 +2849,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_12.fasta</t>
+          <t>label_12718_7_17_10.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1435686153885693</v>
+        <v>0.1837959790615837</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7817495126288633</v>
+        <v>0.7677449360728199</v>
       </c>
       <c r="D69" t="n">
-        <v>3.055622779719211e-14</v>
+        <v>4.320376631966841e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07468187198253684</v>
+        <v>0.04845908486555337</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7817495126288633</v>
+        <v>0.7677449360728199</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2957,23 +2876,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_25.fasta</t>
+          <t>label_12718_7_17_14.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1289827842352727</v>
+        <v>0.1850574425310575</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8036833687680641</v>
+        <v>0.7676908620551816</v>
       </c>
       <c r="D70" t="n">
-        <v>2.499735579946192e-14</v>
+        <v>4.52600777278019e-14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06733384699663843</v>
+        <v>0.04725169541371569</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8036833687680641</v>
+        <v>0.7676908620551816</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2984,23 +2903,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_28.fasta</t>
+          <t>label_12718_7_17_15.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09052170649823543</v>
+        <v>0.1853923189763372</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8726926168111739</v>
+        <v>0.7642725735319319</v>
       </c>
       <c r="D71" t="n">
-        <v>2.227253349790476e-14</v>
+        <v>4.966655181321776e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03678567669056833</v>
+        <v>0.05033510749168111</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8726926168111739</v>
+        <v>0.7642725735319319</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3011,23 +2930,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_32.fasta</t>
+          <t>label_12718_7_17_16.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1060554201536553</v>
+        <v>0.1839142333498853</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8480791770388364</v>
+        <v>0.7681322386578275</v>
       </c>
       <c r="D72" t="n">
-        <v>2.223713258849105e-14</v>
+        <v>4.391819946958646e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04586540280748599</v>
+        <v>0.04795352799224319</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8480791770388364</v>
+        <v>0.7681322386578275</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3038,23 +2957,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_33.fasta</t>
+          <t>label_12718_7_17_18.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1384468520235079</v>
+        <v>0.1825261616009116</v>
       </c>
       <c r="C73" t="n">
-        <v>0.794210012157065</v>
+        <v>0.7684701570204243</v>
       </c>
       <c r="D73" t="n">
-        <v>2.857427526109018e-14</v>
+        <v>4.375806538915399e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06734313581939842</v>
+        <v>0.04900368137862035</v>
       </c>
       <c r="F73" t="n">
-        <v>0.794210012157065</v>
+        <v>0.7684701570204243</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3065,23 +2984,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_38.fasta</t>
+          <t>label_12718_7_17_23.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1150890865981479</v>
+        <v>0.1861943500045448</v>
       </c>
       <c r="C74" t="n">
-        <v>0.834096452749241</v>
+        <v>0.7656007691810589</v>
       </c>
       <c r="D74" t="n">
-        <v>2.221829456634772e-14</v>
+        <v>4.877999605619014e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.05081446065258879</v>
+        <v>0.04820488081434758</v>
       </c>
       <c r="F74" t="n">
-        <v>0.834096452749241</v>
+        <v>0.7656007691810589</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3092,23 +3011,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_40.fasta</t>
+          <t>label_12718_7_17_30.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1184298024778625</v>
+        <v>0.184842713137691</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8287582965184349</v>
+        <v>0.7684590270090473</v>
       </c>
       <c r="D75" t="n">
-        <v>2.22151081365017e-14</v>
+        <v>4.403236623659011e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05281190100368026</v>
+        <v>0.04669825985321769</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8287582965184349</v>
+        <v>0.7684590270090473</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3119,23 +3038,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_44.fasta</t>
+          <t>label_12718_7_17_39.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1137658521547569</v>
+        <v>0.1859625241256123</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8329294283559758</v>
+        <v>0.7703735215172947</v>
       </c>
       <c r="D76" t="n">
-        <v>2.222951883784403e-14</v>
+        <v>4.289438716437935e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05330471948924509</v>
+        <v>0.04366395435705009</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8329294283559758</v>
+        <v>0.7703735215172947</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3146,23 +3065,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_45.fasta</t>
+          <t>label_12718_7_17_42.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.08936583348944808</v>
+        <v>0.1858324399646397</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8800249297933317</v>
+        <v>0.7695783387199363</v>
       </c>
       <c r="D77" t="n">
-        <v>2.22745936412517e-14</v>
+        <v>4.276591423807593e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03060923671719792</v>
+        <v>0.04458922131538121</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8800249297933317</v>
+        <v>0.7695783387199363</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3173,23 +3092,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_56.fasta</t>
+          <t>label_12718_7_17_52.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09689059725258807</v>
+        <v>0.188940241207525</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8618469326077313</v>
+        <v>0.7692202379250292</v>
       </c>
       <c r="D78" t="n">
-        <v>2.228330234489286e-14</v>
+        <v>4.126578042166101e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04126247013965852</v>
+        <v>0.0418395208674044</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8618469326077313</v>
+        <v>0.7692202379250292</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3200,23 +3119,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_62.fasta</t>
+          <t>label_12718_7_17_58.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08682564107097958</v>
+        <v>0.1876401246494998</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8842904231256986</v>
+        <v>0.7678753041974529</v>
       </c>
       <c r="D79" t="n">
-        <v>2.228054551750395e-14</v>
+        <v>4.122454411062376e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02888393580329949</v>
+        <v>0.04448457115300601</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8842904231256986</v>
+        <v>0.7678753041974529</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3227,23 +3146,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_68.fasta</t>
+          <t>label_12718_7_17_63.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0916789767537218</v>
+        <v>0.1885072131510177</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8755858781834455</v>
+        <v>0.7695026354495792</v>
       </c>
       <c r="D80" t="n">
-        <v>2.226387625280766e-14</v>
+        <v>4.519297584175258e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03273514506281043</v>
+        <v>0.04199015139935802</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8755858781834455</v>
+        <v>0.7695026354495792</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3254,23 +3173,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_71.fasta</t>
+          <t>label_12718_7_17_70.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09609383153730093</v>
+        <v>0.1887131517214456</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8736535064683829</v>
+        <v>0.7800663809157574</v>
       </c>
       <c r="D81" t="n">
-        <v>2.222730352863191e-14</v>
+        <v>4.92739803490825e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03025266199429383</v>
+        <v>0.03122046736274789</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8736535064683829</v>
+        <v>0.7800663809157574</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3281,23 +3200,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_75.fasta</t>
+          <t>label_12718_7_17_73.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1068956637902466</v>
+        <v>0.1632047179548062</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8521884528059613</v>
+        <v>0.7478534808709273</v>
       </c>
       <c r="D82" t="n">
-        <v>2.222229321668061e-14</v>
+        <v>3.869238117618556e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04091588340376978</v>
+        <v>0.08894180117422777</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8521884528059613</v>
+        <v>0.7478534808709273</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3308,457 +3227,25 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_17_82.fasta</t>
+          <t>label_12718_7_17_80.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2687763872950891</v>
+        <v>0.1786685288595334</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2615542007825467</v>
+        <v>0.7651007308369302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2128820962090509</v>
+        <v>3.854149569509893e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2567873157133134</v>
+        <v>0.05623074030349787</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2687763872950891</v>
+        <v>0.7651007308369302</v>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus animalis</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_9.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.1633443904653393</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.744599511976459</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.930883842962967e-14</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.09205609755816239</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.744599511976459</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_10.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.1837959790615837</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7677449360728199</v>
-      </c>
-      <c r="D85" t="n">
-        <v>4.320376631966841e-14</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.04845908486555337</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.7677449360728199</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_14.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.1850574425310575</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.7676908620551816</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4.52600777278019e-14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.04725169541371569</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.7676908620551816</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_15.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.1853923189763372</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.7642725735319319</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4.966655181321776e-14</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.05033510749168111</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.7642725735319319</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_16.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.1839142333498853</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.7681322386578275</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4.391819946958646e-14</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.04795352799224319</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.7681322386578275</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_18.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.1825261616009116</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.7684701570204243</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4.375806538915399e-14</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.04900368137862035</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.7684701570204243</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_23.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.1861943500045448</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.7656007691810589</v>
-      </c>
-      <c r="D90" t="n">
-        <v>4.877999605619014e-14</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.04820488081434758</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.7656007691810589</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_30.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.184842713137691</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.7684590270090473</v>
-      </c>
-      <c r="D91" t="n">
-        <v>4.403236623659011e-14</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.04669825985321769</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.7684590270090473</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_39.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.1859625241256123</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.7703735215172947</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.289438716437935e-14</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.04366395435705009</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.7703735215172947</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_42.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.1858324399646397</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.7695783387199363</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.276591423807593e-14</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.04458922131538121</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.7695783387199363</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_52.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.188940241207525</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.7692202379250292</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4.126578042166101e-14</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0418395208674044</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.7692202379250292</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_58.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.1876401246494998</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.7678753041974529</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.122454411062376e-14</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.04448457115300601</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.7678753041974529</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_63.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1885072131510177</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.7695026354495792</v>
-      </c>
-      <c r="D96" t="n">
-        <v>4.519297584175258e-14</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.04199015139935802</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.7695026354495792</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_70.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.1887131517214456</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.7800663809157574</v>
-      </c>
-      <c r="D97" t="n">
-        <v>4.92739803490825e-14</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.03122046736274789</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.7800663809157574</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_73.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.1632047179548062</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.7478534808709273</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3.869238117618556e-14</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.08894180117422777</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.7478534808709273</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_17_80.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.1786685288595334</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.7651007308369302</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.854149569509893e-14</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.05623074030349787</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.7651007308369302</v>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus murinus</t>
         </is>
@@ -3775,7 +3262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3850,50 +3337,50 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_6.fasta</t>
+          <t>label_GCF_000159375_3.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2590998811664387</v>
+        <v>0.04223646692152041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5666446114512308</v>
+        <v>0.3347833257073085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1628811170929384</v>
+        <v>0.6191009256714269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01137439028939211</v>
+        <v>0.003879281699744158</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5666446114512308</v>
+        <v>0.6191009256714269</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus ruminis</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_3.fasta</t>
+          <t>label_GCF_000159375_1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04223646692152041</v>
+        <v>0.03905783713021702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3347833257073085</v>
+        <v>0.2572956034118155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6191009256714269</v>
+        <v>0.7036465594579445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003879281699744158</v>
+        <v>2.283909606491624e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6191009256714269</v>
+        <v>0.7036465594579445</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3904,23 +3391,23 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_1.fasta</t>
+          <t>label_GCF_000159375_5.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03905783713021702</v>
+        <v>0.03695439373527644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2572956034118155</v>
+        <v>0.2668776322495434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7036465594579445</v>
+        <v>0.6961679740151573</v>
       </c>
       <c r="E5" t="n">
-        <v>2.283909606491624e-14</v>
+        <v>2.285704638215065e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7036465594579445</v>
+        <v>0.6961679740151573</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3931,23 +3418,23 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_5.fasta</t>
+          <t>label_GCF_000159375_0.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03695439373527644</v>
+        <v>0.0527474812454057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2668776322495434</v>
+        <v>0.1028328457465188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6961679740151573</v>
+        <v>0.8045846678474672</v>
       </c>
       <c r="E6" t="n">
-        <v>2.285704638215065e-14</v>
+        <v>0.03983500516060833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6961679740151573</v>
+        <v>0.8045846678474672</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3958,23 +3445,23 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_0.fasta</t>
+          <t>label_GCF_000159375_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0527474812454057</v>
+        <v>0.055127434509063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1028328457465188</v>
+        <v>0.0935361390820636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8045846678474672</v>
+        <v>0.8084744720734047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03983500516060833</v>
+        <v>0.04286195433546872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8045846678474672</v>
+        <v>0.8084744720734047</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3985,52 +3472,25 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159375_2.fasta</t>
+          <t>label_GCF_000159375_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.055127434509063</v>
+        <v>0.162319535166915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0935361390820636</v>
+        <v>0.7177805255880473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8084744720734047</v>
+        <v>0.0742863229579894</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04286195433546872</v>
+        <v>0.04561361628704834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8084744720734047</v>
+        <v>0.7177805255880473</v>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus ruminis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000159375_4.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.162319535166915</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7177805255880473</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0742863229579894</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04561361628704834</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7177805255880473</v>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus murinus</t>
         </is>
@@ -4047,7 +3507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4230,23 +3690,23 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_0.fasta</t>
+          <t>label_20298_2_53_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03267485564494969</v>
+        <v>0.05667763455424436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.124506090436244</v>
+        <v>0.3785386437583124</v>
       </c>
       <c r="D7" t="n">
-        <v>2.247008013800651e-14</v>
+        <v>2.315580538562266e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8428190539187839</v>
+        <v>0.5647837216874202</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8428190539187839</v>
+        <v>0.5647837216874202</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4257,50 +3717,50 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_12.fasta</t>
+          <t>label_20298_2_53_15.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04435420015207155</v>
+        <v>0.1531666787617826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08265384615145303</v>
+        <v>0.6770811337043826</v>
       </c>
       <c r="D8" t="n">
-        <v>2.24415023149191e-14</v>
+        <v>2.513365120371287e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.872991953696453</v>
+        <v>0.1697521875338098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.872991953696453</v>
+        <v>0.6770811337043826</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_14.fasta</t>
+          <t>label_20298_2_53_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03322939630085284</v>
+        <v>0.05587028721235801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3613775462806526</v>
+        <v>0.3773701255714468</v>
       </c>
       <c r="D9" t="n">
-        <v>2.27616263231918e-14</v>
+        <v>2.314846718872644e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6053930574184718</v>
+        <v>0.5667595872161719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6053930574184718</v>
+        <v>0.5667595872161719</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4311,50 +3771,50 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_2.fasta</t>
+          <t>label_20298_2_53_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03685063895417508</v>
+        <v>0.1720158395664589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1292494304056774</v>
+        <v>0.6544303595223636</v>
       </c>
       <c r="D10" t="n">
-        <v>2.24104023537149e-14</v>
+        <v>3.397667503237784e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8338999306401251</v>
+        <v>0.1735538009111435</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8338999306401251</v>
+        <v>0.6544303595223636</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_1.fasta</t>
+          <t>label_20298_2_53_6.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05667763455424436</v>
+        <v>0.04131601274145044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3785386437583124</v>
+        <v>0.2533832324906265</v>
       </c>
       <c r="D11" t="n">
-        <v>2.315580538562266e-14</v>
+        <v>2.286119343571355e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5647837216874202</v>
+        <v>0.7053007547679002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5647837216874202</v>
+        <v>0.7053007547679002</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4365,50 +3825,50 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_15.fasta</t>
+          <t>label_20298_2_53_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1531666787617826</v>
+        <v>0.04214298418847188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6770811337043826</v>
+        <v>0.2343094167052782</v>
       </c>
       <c r="D12" t="n">
-        <v>2.513365120371287e-14</v>
+        <v>2.274479989060652e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1697521875338098</v>
+        <v>0.7235475991062271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6770811337043826</v>
+        <v>0.7235475991062271</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_9.fasta</t>
+          <t>label_20298_2_53_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05587028721235801</v>
+        <v>0.1568693626825903</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3773701255714468</v>
+        <v>0.1793088547703214</v>
       </c>
       <c r="D13" t="n">
-        <v>2.314846718872644e-14</v>
+        <v>2.760067688036756e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5667595872161719</v>
+        <v>0.6638217825470607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5667595872161719</v>
+        <v>0.6638217825470607</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4419,50 +3879,50 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_5.fasta</t>
+          <t>label_20298_2_53_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1720158395664589</v>
+        <v>0.06079217050878898</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6544303595223636</v>
+        <v>0.4279029180666605</v>
       </c>
       <c r="D14" t="n">
-        <v>3.397667503237784e-14</v>
+        <v>2.3090669062899e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1735538009111435</v>
+        <v>0.5113049114245275</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6544303595223636</v>
+        <v>0.5113049114245275</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus murinus</t>
+          <t>s__Ligilactobacillus salivarius</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_6.fasta</t>
+          <t>label_20298_2_53_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04131601274145044</v>
+        <v>0.06894393065633676</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2533832324906265</v>
+        <v>0.464070861788061</v>
       </c>
       <c r="D15" t="n">
-        <v>2.286119343571355e-14</v>
+        <v>2.299907790336749e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7053007547679002</v>
+        <v>0.4669852075555793</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7053007547679002</v>
+        <v>0.4669852075555793</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4473,50 +3933,50 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_8.fasta</t>
+          <t>label_20298_2_53_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04214298418847188</v>
+        <v>0.07522600547844176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2343094167052782</v>
+        <v>0.4908703448840391</v>
       </c>
       <c r="D16" t="n">
-        <v>2.274479989060652e-14</v>
+        <v>2.290967260110057e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7235475991062271</v>
+        <v>0.4339036496374962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7235475991062271</v>
+        <v>0.4908703448840391</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s__Ligilactobacillus salivarius</t>
+          <t>s__Ligilactobacillus murinus</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_3.fasta</t>
+          <t>label_20298_2_53_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1568693626825903</v>
+        <v>0.05739862554951658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1793088547703214</v>
+        <v>0.4095881065452372</v>
       </c>
       <c r="D17" t="n">
-        <v>2.760067688036756e-14</v>
+        <v>2.314084037962416e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6638217825470607</v>
+        <v>0.5330132679052231</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6638217825470607</v>
+        <v>0.5330132679052231</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4527,133 +3987,25 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_53_10.fasta</t>
+          <t>label_20298_2_53_7.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06079217050878898</v>
+        <v>0.0677524288079691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4279029180666605</v>
+        <v>0.4609183015193778</v>
       </c>
       <c r="D18" t="n">
-        <v>2.3090669062899e-14</v>
+        <v>2.301263748178181e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5113049114245275</v>
+        <v>0.4713292696726301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5113049114245275</v>
+        <v>0.4713292696726301</v>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_53_11.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.06894393065633676</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.464070861788061</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.299907790336749e-14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4669852075555793</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4669852075555793</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_53_13.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.07522600547844176</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4908703448840391</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.290967260110057e-14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.4339036496374962</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4908703448840391</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus murinus</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_53_4.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.05739862554951658</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4095881065452372</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.314084037962416e-14</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5330132679052231</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.5330132679052231</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>s__Ligilactobacillus salivarius</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_53_7.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0677524288079691</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4609183015193778</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.301263748178181e-14</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4713292696726301</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4713292696726301</v>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>s__Ligilactobacillus salivarius</t>
         </is>
